--- a/gameon/sales-12-18-dec.xlsx
+++ b/gameon/sales-12-18-dec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rupak\data-science\gameon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7A05B2-A33A-40AD-929B-C3F482172E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511BAF93-D632-428B-B22A-BA04AD3CBBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$57</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="293">
   <si>
     <t>Year</t>
   </si>
@@ -842,6 +842,72 @@
   </si>
   <si>
     <t xml:space="preserve">Markapur </t>
+  </si>
+  <si>
+    <t>OD426814488585862100</t>
+  </si>
+  <si>
+    <t>Yonex-2021-128</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rawatbhata </t>
+  </si>
+  <si>
+    <t>YONEX Astrox Lite 27i Graphite Strunged with BG 65 (24lbs)&amp; 1Grip Black Strung Badminton Racquet G4 - 8.25 cm</t>
+  </si>
+  <si>
+    <t>OD426817266936663100</t>
+  </si>
+  <si>
+    <t>Yonex-2021-125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohanpur </t>
+  </si>
+  <si>
+    <t>YONEX Astrox Lite 27i Graphite Strunged with BG 65 (27lbs)&amp; 1Grip Black Strung Badminton Racquet G4 - 8.25 cm</t>
+  </si>
+  <si>
+    <t>OD426813093362252100</t>
+  </si>
+  <si>
+    <t>Gos-Apacs-55-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmedagar </t>
+  </si>
+  <si>
+    <t>apacs Finapi 232 Strunged (23lbs) with Full Cover &amp; 1Grip Black Strung Badminton Racquet G4 - 8.25 cm</t>
+  </si>
+  <si>
+    <t>Prayagraj</t>
+  </si>
+  <si>
+    <t>OD326812625262285100</t>
+  </si>
+  <si>
+    <t>Yonex-2021-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doboka </t>
+  </si>
+  <si>
+    <t>YONEX Astrox Lite 21i Graphite (77g, 30 lbs Tension) &amp; 1Grip Black Unstrung Badminton Racquet G4 - 8.25 cm</t>
+  </si>
+  <si>
+    <t>OD326813716295897100</t>
+  </si>
+  <si>
+    <t>Yonex-2021-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junagarh </t>
+  </si>
+  <si>
+    <t>YONEX Voltric Lite 20i Unstrung With BG 65 String &amp; Free Grip Badminton Kit Blue 2</t>
   </si>
 </sst>
 </file>
@@ -1228,10 +1294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3762,7 +3828,7 @@
       <c r="F51" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="14" t="s">
+      <c r="G51" s="6" t="s">
         <v>198</v>
       </c>
       <c r="H51" s="8" t="s">
@@ -3810,7 +3876,7 @@
       <c r="F52" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G52" s="14" t="s">
+      <c r="G52" s="6" t="s">
         <v>254</v>
       </c>
       <c r="H52" s="8" t="s">
@@ -3858,7 +3924,7 @@
       <c r="F53" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G53" s="14" t="s">
+      <c r="G53" s="6" t="s">
         <v>256</v>
       </c>
       <c r="H53" s="8" t="s">
@@ -3906,7 +3972,7 @@
       <c r="F54" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G54" s="14" t="s">
+      <c r="G54" s="6" t="s">
         <v>260</v>
       </c>
       <c r="H54" s="8" t="s">
@@ -3954,7 +4020,7 @@
       <c r="F55" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G55" s="14" t="s">
+      <c r="G55" s="6" t="s">
         <v>264</v>
       </c>
       <c r="H55" s="8" t="s">
@@ -4002,7 +4068,7 @@
       <c r="F56" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G56" s="14" t="s">
+      <c r="G56" s="6" t="s">
         <v>268</v>
       </c>
       <c r="H56" s="8" t="s">
@@ -4050,7 +4116,7 @@
       <c r="F57" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G57" s="14" t="s">
+      <c r="G57" s="6" t="s">
         <v>269</v>
       </c>
       <c r="H57" s="8" t="s">
@@ -4079,8 +4145,308 @@
         <v>80</v>
       </c>
     </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A58" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="7">
+        <v>44912</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="8">
+        <v>2799</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N58" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="O58" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="P58" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A59" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="7">
+        <v>44913</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" s="8">
+        <v>2799</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O59" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="P59" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A60" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="7">
+        <v>44912</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" s="8">
+        <v>2509</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O60" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="P60" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A61" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="7">
+        <v>44906</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" s="8">
+        <v>0</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="O61" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="P61" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A62" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="7">
+        <v>44912</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" s="8">
+        <v>2399</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N62" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O62" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="P62" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A63" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="7">
+        <v>44912</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K63" s="8">
+        <v>2699</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N63" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="O63" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="P63" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P42" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:P57" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
